--- a/wave1_public_final.xlsx
+++ b/wave1_public_final.xlsx
@@ -745,7 +745,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>'1' '2a'</t>
+          <t>'1'</t>
         </is>
       </c>
     </row>
